--- a/Input Data.xlsx
+++ b/Input Data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA8559B-BDDB-40A9-A418-7A340C448CEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EA1253-C97F-418A-9CC9-4914B4DF74F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,19 +385,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:F8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.47265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -443,7 +443,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -451,10 +451,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-118.17881</v>
+        <v>-118.06529999999999</v>
       </c>
       <c r="D3">
-        <v>33.930880000000002</v>
+        <v>34.041820000000001</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -466,18 +466,18 @@
         <v>975</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>-118.06529999999999</v>
-      </c>
-      <c r="D4">
-        <v>34.041820000000001</v>
+      <c r="C4" s="2">
+        <v>-117.29201</v>
+      </c>
+      <c r="D4" s="2">
+        <v>34.064990000000002</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -489,9 +489,12 @@
         <v>975</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input Data.xlsx
+++ b/Input Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EA1253-C97F-418A-9CC9-4914B4DF74F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEC99FF-2331-4EF2-B28E-7B1383D23BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Edition</t>
   </si>
@@ -34,22 +34,16 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>imt</t>
-  </si>
-  <si>
     <t>vs30</t>
   </si>
   <si>
     <t>Return Period</t>
   </si>
   <si>
-    <t>E2008</t>
-  </si>
-  <si>
     <t>WUS</t>
   </si>
   <si>
-    <t>SA1P0</t>
+    <t>Period</t>
   </si>
 </sst>
 </file>
@@ -388,13 +382,14 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.75">
@@ -411,21 +406,21 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>2008</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2">
         <v>-118.17119</v>
@@ -433,8 +428,8 @@
       <c r="D2">
         <v>34.148429999999998</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2">
+        <v>0.5</v>
       </c>
       <c r="F2">
         <v>760</v>
@@ -444,11 +439,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>7</v>
+      <c r="A3">
+        <v>2008</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>-118.06529999999999</v>
@@ -456,38 +451,19 @@
       <c r="D3">
         <v>34.041820000000001</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="E3">
+        <v>1.2</v>
       </c>
       <c r="F3">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="G3">
-        <v>975</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-117.29201</v>
-      </c>
-      <c r="D4" s="2">
-        <v>34.064990000000002</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>259</v>
-      </c>
-      <c r="G4">
-        <v>975</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="D5" s="2"/>

--- a/Input Data.xlsx
+++ b/Input Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEC99FF-2331-4EF2-B28E-7B1383D23BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0FDA64-F89D-418D-80E4-8C1C884A30CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,55 +20,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>vs30</t>
+  </si>
+  <si>
+    <t>Return Period</t>
+  </si>
+  <si>
+    <t>WUS</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
   <si>
     <t>Edition</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>vs30</t>
-  </si>
-  <si>
-    <t>Return Period</t>
-  </si>
-  <si>
-    <t>WUS</t>
-  </si>
-  <si>
-    <t>Period</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F497D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,14 +79,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,98 +361,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="B1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.75">
+      <c r="B2">
+        <v>2008</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2">
+        <v>-118.17119</v>
+      </c>
+      <c r="E2">
+        <v>34.052039999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>390</v>
+      </c>
+      <c r="H2">
+        <v>475</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.75">
+      <c r="B3">
         <v>2008</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>-118.06529999999999</v>
+      </c>
+      <c r="E3">
+        <v>34.041820000000001</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>280</v>
+      </c>
+      <c r="H3">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.75">
+      <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>-118.17119</v>
       </c>
-      <c r="D2">
+      <c r="E4">
         <v>34.148429999999998</v>
       </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="F2">
-        <v>760</v>
-      </c>
-      <c r="G2">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A3">
-        <v>2008</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>-118.06529999999999</v>
-      </c>
-      <c r="D3">
-        <v>34.041820000000001</v>
-      </c>
-      <c r="E3">
-        <v>1.2</v>
-      </c>
-      <c r="F3">
-        <v>280</v>
-      </c>
-      <c r="G3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="D5" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>748</v>
+      </c>
+      <c r="H4">
+        <v>2475</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
